--- a/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
+++ b/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.06.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D522FDD-C7FB-469F-81FC-732B111874B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263A219-DD07-4281-B5A7-146859E56052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -778,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,6 +4487,84 @@
         <v>29</v>
       </c>
     </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>SUM(B2:B44)</f>
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:U45" si="0">SUM(C2:C44)</f>
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
+++ b/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.06.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263A219-DD07-4281-B5A7-146859E56052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D278133-A269-478C-91E5-F108210CABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,84 +4487,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <f>SUM(B2:B44)</f>
-        <v>70</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:U45" si="0">SUM(C2:C44)</f>
-        <v>68</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
+++ b/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.06.2025 Макс Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\23.06.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263A219-DD07-4281-B5A7-146859E56052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D62C17-4CD1-44E1-BD6D-5F94CDC6CCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Артикул</t>
   </si>
@@ -85,36 +96,15 @@
     <t>Num_Copies</t>
   </si>
   <si>
-    <t>осталось</t>
-  </si>
-  <si>
     <t>Место</t>
   </si>
   <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Имя папки</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
-    <t>Тип упорядочить</t>
-  </si>
-  <si>
     <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
   </si>
   <si>
     <t>а2</t>
   </si>
   <si>
-    <t>23.06.2025 Макс Озон</t>
-  </si>
-  <si>
-    <t>1_а4</t>
-  </si>
-  <si>
     <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
   </si>
   <si>
@@ -277,9 +267,6 @@
     <t>м7</t>
   </si>
   <si>
-    <t>2_а5</t>
-  </si>
-  <si>
     <t>Термонаклейка Кот вцепился сползает вниз</t>
   </si>
   <si>
@@ -358,9 +345,6 @@
     <t>г1</t>
   </si>
   <si>
-    <t>3_термобирки</t>
-  </si>
-  <si>
     <t>Термобирки Котята</t>
   </si>
   <si>
@@ -373,7 +357,7 @@
     <t>а7</t>
   </si>
   <si>
-    <t>6_а4_настройки_60</t>
+    <t>3.06.2025 Макс Озон</t>
   </si>
 </sst>
 </file>
@@ -438,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -461,21 +445,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -778,18 +791,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,31 +876,16 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -939,29 +947,14 @@
       <c r="U2" s="2">
         <v>86</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1023,29 +1016,14 @@
       <c r="U3" s="2">
         <v>54</v>
       </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1107,29 +1085,14 @@
       <c r="U4" s="2">
         <v>52</v>
       </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1191,29 +1154,14 @@
       <c r="U5" s="2">
         <v>52</v>
       </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2" t="s">
+      <c r="V5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="2">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="2" t="s">
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1275,29 +1223,14 @@
       <c r="U6" s="2">
         <v>50</v>
       </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1359,29 +1292,14 @@
       <c r="U7" s="2">
         <v>50</v>
       </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1443,29 +1361,14 @@
       <c r="U8" s="3">
         <v>48</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -1527,29 +1430,14 @@
       <c r="U9" s="3">
         <v>48</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -1611,29 +1499,14 @@
       <c r="U10" s="3">
         <v>46</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>23</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1695,29 +1568,14 @@
       <c r="U11" s="3">
         <v>40</v>
       </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>20</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1779,29 +1637,14 @@
       <c r="U12" s="3">
         <v>18</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1863,29 +1706,14 @@
       <c r="U13" s="3">
         <v>16</v>
       </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1947,29 +1775,14 @@
       <c r="U14" s="3">
         <v>16</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -2031,29 +1844,14 @@
       <c r="U15" s="3">
         <v>14</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -2115,29 +1913,14 @@
       <c r="U16" s="3">
         <v>12</v>
       </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -2199,29 +1982,14 @@
       <c r="U17" s="3">
         <v>8</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -2283,29 +2051,14 @@
       <c r="U18" s="3">
         <v>8</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -2367,29 +2120,14 @@
       <c r="U19" s="3">
         <v>8</v>
       </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2451,29 +2189,14 @@
       <c r="U20" s="3">
         <v>8</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2535,29 +2258,14 @@
       <c r="U21" s="3">
         <v>6</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -2619,29 +2327,14 @@
       <c r="U22" s="3">
         <v>6</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2703,29 +2396,14 @@
       <c r="U23" s="3">
         <v>6</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2787,365 +2465,290 @@
       <c r="U24" s="3">
         <v>6</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
+      <c r="V24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>4</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2</v>
+      </c>
+      <c r="U26" s="3">
+        <v>4</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>4</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>2</v>
+      </c>
+      <c r="V28" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>2</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3">
-        <v>4</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="3" t="s">
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>2</v>
-      </c>
-      <c r="U26" s="3">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>2</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
@@ -3207,29 +2810,14 @@
       <c r="U29" s="4">
         <v>52</v>
       </c>
-      <c r="V29" s="4">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>13</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
@@ -3291,29 +2879,14 @@
       <c r="U30" s="4">
         <v>52</v>
       </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>13</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
@@ -3375,29 +2948,14 @@
       <c r="U31" s="4">
         <v>52</v>
       </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>13</v>
-      </c>
-      <c r="AA31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -3459,29 +3017,14 @@
       <c r="U32" s="4">
         <v>48</v>
       </c>
-      <c r="V32" s="4">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>12</v>
-      </c>
-      <c r="AA32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
@@ -3543,29 +3086,14 @@
       <c r="U33" s="4">
         <v>48</v>
       </c>
-      <c r="V33" s="4">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>12</v>
-      </c>
-      <c r="AA33" s="4" t="s">
+      <c r="V33" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AB33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4">
         <v>2</v>
@@ -3627,29 +3155,14 @@
       <c r="U34" s="4">
         <v>44</v>
       </c>
-      <c r="V34" s="4">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3711,29 +3224,14 @@
       <c r="U35" s="4">
         <v>16</v>
       </c>
-      <c r="V35" s="4">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB35" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -3795,29 +3293,14 @@
       <c r="U36" s="4">
         <v>12</v>
       </c>
-      <c r="V36" s="4">
-        <v>0</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -3879,29 +3362,14 @@
       <c r="U37" s="4">
         <v>12</v>
       </c>
-      <c r="V37" s="4">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -3963,29 +3431,14 @@
       <c r="U38" s="4">
         <v>12</v>
       </c>
-      <c r="V38" s="4">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4047,29 +3500,14 @@
       <c r="U39" s="5">
         <v>8</v>
       </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -4131,29 +3569,14 @@
       <c r="U40" s="5">
         <v>8</v>
       </c>
-      <c r="V40" s="5">
-        <v>0</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V40" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -4215,29 +3638,14 @@
       <c r="U41" s="5">
         <v>4</v>
       </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V41" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B42" s="6">
         <v>20</v>
@@ -4299,29 +3707,14 @@
       <c r="U42" s="6">
         <v>600</v>
       </c>
-      <c r="V42" s="6">
-        <v>0</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z42" s="6">
-        <v>150</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V42" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -4383,29 +3776,14 @@
       <c r="U43" s="2">
         <v>124</v>
       </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>31</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B44" s="7">
         <v>1</v>
@@ -4467,105 +3845,98 @@
       <c r="U44" s="7">
         <v>6</v>
       </c>
-      <c r="V44" s="7">
-        <v>0</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB44" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="V44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8">
         <f>SUM(B2:B44)</f>
         <v>70</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <f t="shared" ref="C45:U45" si="0">SUM(C2:C44)</f>
         <v>68</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="8">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="8">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="8">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="8">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="8">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="8">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="8">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="8">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="8">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
+      <c r="U45" s="8">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+      <c r="V45" s="16"/>
+      <c r="W45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
+++ b/MainTop/23.06.2025 Макс Озон/print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\23.06.2025 Макс Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D278133-A269-478C-91E5-F108210CABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C553ED6-E9A4-4455-89A8-EDD9A8BC1664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,6 +4487,88 @@
         <v>29</v>
       </c>
     </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>SUM(B2:B44)</f>
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:U45" si="0">SUM(C2:C44)</f>
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
